--- a/artfynd/A 50972-2020.xlsx
+++ b/artfynd/A 50972-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73920018</v>
+        <v>80448314</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Dalarna, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>500981.982862098</v>
+        <v>501081.1366199313</v>
       </c>
       <c r="R2" t="n">
-        <v>6796631.058847403</v>
+        <v>6796554.212503371</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73920027</v>
+        <v>90732145</v>
       </c>
       <c r="B3" t="n">
-        <v>90653</v>
+        <v>77605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>967</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Dalarna, Dlr</t>
+          <t>Jordikamäck, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>501185.0981308258</v>
+        <v>501049.8414784005</v>
       </c>
       <c r="R3" t="n">
-        <v>6796503.795656851</v>
+        <v>6796606.094172257</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73920017</v>
+        <v>73920018</v>
       </c>
       <c r="B4" t="n">
-        <v>88806</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5685</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>500982.9405652633</v>
+        <v>500981.982862098</v>
       </c>
       <c r="R4" t="n">
-        <v>6796647.875423959</v>
+        <v>6796631.058847403</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80081470</v>
+        <v>73920027</v>
       </c>
       <c r="B5" t="n">
-        <v>88476</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,44 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Mickelsjön, Dlr</t>
+          <t>Dalarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>500989.2359758026</v>
+        <v>501185.0981308258</v>
       </c>
       <c r="R5" t="n">
-        <v>6796507.578677795</v>
+        <v>6796503.795656851</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1089,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1099,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1113,29 +1110,28 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80448314</v>
+        <v>73920017</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>88806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,37 +1144,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>5685</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Dalarna, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>501081.1366199313</v>
+        <v>500982.9405652633</v>
       </c>
       <c r="R6" t="n">
-        <v>6796554.212503371</v>
+        <v>6796647.875423959</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1202,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1212,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1232,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90732145</v>
+        <v>80081470</v>
       </c>
       <c r="B7" t="n">
-        <v>77605</v>
+        <v>88476</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1260,34 +1256,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>967</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Jordikamäck, Dlr</t>
+          <t>Mickelsjön, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>501049.8414784005</v>
+        <v>500989.2359758026</v>
       </c>
       <c r="R7" t="n">
-        <v>6796606.094172257</v>
+        <v>6796507.578677795</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1314,7 +1313,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1324,7 +1323,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1338,6 +1337,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 50972-2020.xlsx
+++ b/artfynd/A 50972-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80448314</v>
+        <v>73920018</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>En route, Dlr</t>
+          <t>Dalarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>501081.1366199313</v>
+        <v>500981.982862098</v>
       </c>
       <c r="R2" t="n">
-        <v>6796554.212503371</v>
+        <v>6796631.058847403</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90732145</v>
+        <v>73920027</v>
       </c>
       <c r="B3" t="n">
-        <v>77605</v>
+        <v>90653</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>967</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Varglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Letharia vulpina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hue</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Jordikamäck, Dlr</t>
+          <t>Dalarna, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>501049.8414784005</v>
+        <v>501185.0981308258</v>
       </c>
       <c r="R3" t="n">
-        <v>6796606.094172257</v>
+        <v>6796503.795656851</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2018-08-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Andreas Öster</t>
+          <t>Ville Pokela</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73920018</v>
+        <v>73920017</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>88806</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>5685</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>500981.982862098</v>
+        <v>500982.9405652633</v>
       </c>
       <c r="R4" t="n">
-        <v>6796631.058847403</v>
+        <v>6796647.875423959</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73920027</v>
+        <v>80081470</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>88476</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,41 +1028,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Dalarna, Dlr</t>
+          <t>Mickelsjön, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>501185.0981308258</v>
+        <v>500989.2359758026</v>
       </c>
       <c r="R5" t="n">
-        <v>6796503.795656851</v>
+        <v>6796507.578677795</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1099,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1110,28 +1113,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73920017</v>
+        <v>80448314</v>
       </c>
       <c r="B6" t="n">
-        <v>88806</v>
+        <v>90665</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,37 +1148,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5685</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Dalarna, Dlr</t>
+          <t>En route, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>500982.9405652633</v>
+        <v>501081.1366199313</v>
       </c>
       <c r="R6" t="n">
-        <v>6796647.875423959</v>
+        <v>6796554.212503371</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1198,7 +1202,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1212,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-08-01</t>
+          <t>2019-09-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1228,22 +1232,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ville Pokela</t>
+          <t>Andreas Öster</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80081470</v>
+        <v>90732145</v>
       </c>
       <c r="B7" t="n">
-        <v>88476</v>
+        <v>77605</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,37 +1260,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>967</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Varglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Letharia vulpina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(L.) Hue</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Mickelsjön, Dlr</t>
+          <t>Jordikamäck, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>500989.2359758026</v>
+        <v>501049.8414784005</v>
       </c>
       <c r="R7" t="n">
-        <v>6796507.578677795</v>
+        <v>6796606.094172257</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1313,7 +1314,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1323,7 +1324,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-09-24</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1337,7 +1338,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
